--- a/template.xlsx
+++ b/template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -16,55 +16,58 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t xml:space="preserve">ჯი-გრეიდი</t>
-  </si>
-  <si>
-    <t xml:space="preserve">მისამართი: თბილისი ჯაირმის ქ 24-ე კ </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t xml:space="preserve">ბი-თრეიდი</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B-TRADE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">მისამართი: თბილისი </t>
   </si>
   <si>
     <t xml:space="preserve">თარიღი</t>
   </si>
   <si>
-    <t xml:space="preserve">ტელ: 597988866</t>
+    <t xml:space="preserve">ტელ: 599</t>
   </si>
   <si>
     <t xml:space="preserve">ინვოისი#</t>
   </si>
   <si>
-    <t xml:space="preserve">73-446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ს/კ 1234435234</t>
+    <t xml:space="preserve">73-561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ს/კ 405722918</t>
   </si>
   <si>
     <t xml:space="preserve">ბანკი: საქართველო</t>
   </si>
   <si>
-    <t xml:space="preserve">ა/ა:GE12BG000000060436674</t>
+    <t xml:space="preserve">ა/ა:GE12BG0000</t>
   </si>
   <si>
     <t xml:space="preserve">ბანკი: თიბისი</t>
   </si>
   <si>
-    <t xml:space="preserve">GE10TB7756136020154779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">კომპ/სახელი: კოპმსახელი</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ს/კ 000000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">მისამართი: მისამართი</t>
+    <t xml:space="preserve">GE10TB7007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">კომპ/სახელი: შპსერს</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ს/კ 434188096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">მისამართი: მარნეული</t>
   </si>
   <si>
     <t xml:space="preserve">დანიშნულება</t>
@@ -77,12 +80,6 @@
   </si>
   <si>
     <t xml:space="preserve">თანხა</t>
-  </si>
-  <si>
-    <t xml:space="preserve">არმატურა(ქართ.) 25 მმ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">არმატურა(ქართ.) 22 მმ</t>
   </si>
 </sst>
 </file>
@@ -163,9 +160,8 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -307,7 +303,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -400,6 +396,10 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -424,7 +424,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -494,6 +494,49 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>250920</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>77040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>774360</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>207360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3670920" y="5419800"/>
+          <a:ext cx="1446840" cy="1406880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -609,32 +652,34 @@
   </sheetPr>
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.75" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="48.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="13.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="48.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.95"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="9"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -642,281 +687,269 @@
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="12" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>46000</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46001</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="12"/>
       <c r="D6" s="19"/>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="12"/>
       <c r="D7" s="19"/>
     </row>
-    <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="11"/>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
-        <v>11</v>
+    <row r="12" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="23" t="s">
+        <v>12</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="23" t="s">
-        <v>12</v>
+    <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="17"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="26"/>
     </row>
     <row r="16" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="27" t="s">
+      <c r="A16" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="B16" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="C16" s="28" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="29" t="s">
+      <c r="D16" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="30" t="n">
-        <v>4</v>
-      </c>
-      <c r="C17" s="31" t="n">
-        <v>2255</v>
-      </c>
-      <c r="D17" s="32" t="n">
+    </row>
+    <row r="17" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33" t="n">
         <f aca="false">B17*C17</f>
-        <v>9020</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="30" t="n">
-        <v>22</v>
-      </c>
-      <c r="C18" s="31" t="n">
-        <v>2255</v>
-      </c>
-      <c r="D18" s="32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="30"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="33" t="n">
         <f aca="false">B18*C18</f>
-        <v>49610</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="30"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="33" t="n">
         <f aca="false">B19*C19</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="29"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="32" t="n">
+    <row r="20" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="30"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="33" t="n">
         <f aca="false">B20*C20</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="29"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="32" t="n">
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="30"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="33" t="n">
         <f aca="false">B21*C21</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="29"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="32" t="n">
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="30"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="33" t="n">
         <f aca="false">B22*C22</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="29"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="32" t="n">
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="30"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="33" t="n">
         <f aca="false">B23*C23</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="29"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="32" t="n">
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="30"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="33" t="n">
         <f aca="false">B24*C24</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="34"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="35"/>
     </row>
     <row r="26" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="34"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="35"/>
     </row>
     <row r="27" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="34"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="35"/>
     </row>
     <row r="28" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="34"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="35"/>
     </row>
     <row r="29" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="34"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="35"/>
     </row>
     <row r="30" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="34"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="35"/>
     </row>
     <row r="31" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="35"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="34"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="35"/>
     </row>
     <row r="32" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="35"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="34"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="35"/>
     </row>
     <row r="33" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="34"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="35"/>
     </row>
     <row r="34" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="33"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="34"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="35"/>
     </row>
     <row r="35" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="38"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="39"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="40"/>
     </row>
     <row r="36" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="40"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="42" t="n">
+      <c r="A36" s="41"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="43" t="n">
         <f aca="false">D17+D18+D19+D20+D21+D22+D23+D24</f>
-        <v>58630</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="43"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="44"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -937,5 +970,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/template.xlsx
+++ b/template.xlsx
@@ -92,13 +92,14 @@
     <numFmt numFmtId="166" formatCode="@"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="@&quot;  &quot;"/>
-    <numFmt numFmtId="169" formatCode="#,##0.00\ [$Lari-437];\-#,##0.00\ [$Lari-437]"/>
+    <numFmt numFmtId="169" formatCode="#,##0.00[$ლარი-437];[RED]\-#,##0.00[$ლარი-437]"/>
   </numFmts>
   <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -121,18 +122,21 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="18"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="28"/>
       <color rgb="FFFF0000"/>
       <name val="Arial Black"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -140,28 +144,33 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -308,179 +317,179 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -507,9 +516,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>774360</xdr:colOff>
+      <xdr:colOff>773640</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>207360</xdr:rowOff>
+      <xdr:rowOff>206640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -523,7 +532,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3670920" y="5419800"/>
-          <a:ext cx="1446840" cy="1406880"/>
+          <a:ext cx="1446120" cy="1406160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -652,134 +661,134 @@
   </sheetPr>
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I35" activeCellId="0" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="48.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="13.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="48.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.94"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="13" t="n">
+      <c r="D4" s="14" t="n">
         <v>46001</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="20"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="20"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="11"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
       <c r="D15" s="26"/>
